--- a/FAST codes/Charts/16June23/16June23_thermal_conductivity.xlsx
+++ b/FAST codes/Charts/16June23/16June23_thermal_conductivity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>G1TAverage</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>G2TAverage</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>G3TAverage</t>
+          <t>Thermal Conductivity</t>
         </is>
       </c>
     </row>
@@ -460,13 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.641</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22.543</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.315</v>
+        <v>25.549</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +458,7 @@
         <v>0.27</v>
       </c>
       <c r="B3" t="n">
-        <v>78.468</v>
-      </c>
-      <c r="C3" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.215</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +466,7 @@
         <v>1.04</v>
       </c>
       <c r="B4" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>72.247</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.423</v>
+        <v>1.396</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +474,7 @@
         <v>1.2</v>
       </c>
       <c r="B5" t="n">
-        <v>86.021</v>
-      </c>
-      <c r="C5" t="n">
-        <v>72.45999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.515</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +482,7 @@
         <v>1.37</v>
       </c>
       <c r="B6" t="n">
-        <v>85.342</v>
-      </c>
-      <c r="C6" t="n">
-        <v>74.116</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19.82</v>
+        <v>1.184</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +490,7 @@
         <v>1.62</v>
       </c>
       <c r="B7" t="n">
-        <v>86.142</v>
-      </c>
-      <c r="C7" t="n">
-        <v>74.95099999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.093</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +498,7 @@
         <v>1.83</v>
       </c>
       <c r="B8" t="n">
-        <v>86.598</v>
-      </c>
-      <c r="C8" t="n">
-        <v>75.44</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19.965</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +506,7 @@
         <v>2.16</v>
       </c>
       <c r="B9" t="n">
-        <v>86.871</v>
-      </c>
-      <c r="C9" t="n">
-        <v>75.81</v>
-      </c>
-      <c r="D9" t="n">
-        <v>18.201</v>
+        <v>1.275</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +514,7 @@
         <v>2.41</v>
       </c>
       <c r="B10" t="n">
-        <v>86.902</v>
-      </c>
-      <c r="C10" t="n">
-        <v>75.813</v>
-      </c>
-      <c r="D10" t="n">
-        <v>18.164</v>
+        <v>1.273</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +522,7 @@
         <v>2.72</v>
       </c>
       <c r="B11" t="n">
-        <v>86.95699999999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>75.745</v>
-      </c>
-      <c r="D11" t="n">
-        <v>18.429</v>
+        <v>1.251</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +530,7 @@
         <v>2.9</v>
       </c>
       <c r="B12" t="n">
-        <v>86.961</v>
-      </c>
-      <c r="C12" t="n">
-        <v>75.71599999999999</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18.559</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +538,7 @@
         <v>3.1</v>
       </c>
       <c r="B13" t="n">
-        <v>86.949</v>
-      </c>
-      <c r="C13" t="n">
-        <v>75.715</v>
-      </c>
-      <c r="D13" t="n">
-        <v>18.465</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +546,7 @@
         <v>3.25</v>
       </c>
       <c r="B14" t="n">
-        <v>86.875</v>
-      </c>
-      <c r="C14" t="n">
-        <v>75.66800000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>18.029</v>
+        <v>1.259</v>
       </c>
     </row>
   </sheetData>
